--- a/backend/public/template.xlsx
+++ b/backend/public/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -47,21 +47,6 @@
     <t>kota</t>
   </si>
   <si>
-    <t>Rawat</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>kh</t>
-  </si>
-  <si>
-    <t>kan</t>
-  </si>
-  <si>
     <t>JoiningDate</t>
   </si>
   <si>
@@ -80,7 +65,49 @@
     <t>inactive</t>
   </si>
   <si>
-    <t>Kota</t>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Tanay</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Rishabh</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>React,Node</t>
+  </si>
+  <si>
+    <t>React,Python</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>React,HTML</t>
+  </si>
+  <si>
+    <t>HTML,CSS</t>
+  </si>
+  <si>
+    <t>jaipur</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>rajkot</t>
   </si>
 </sst>
 </file>
@@ -402,7 +429,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,19 +453,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -452,16 +479,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>45212</v>
+        <v>44847</v>
       </c>
       <c r="E2" s="1">
-        <v>36078</v>
+        <v>36082</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -472,25 +499,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>41559</v>
+        <v>44876</v>
       </c>
       <c r="E3" s="1">
-        <v>36079</v>
+        <v>35714</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>20001</v>
+        <v>35000</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -498,25 +525,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>41559</v>
+        <v>41287</v>
       </c>
       <c r="E4" s="1">
-        <v>36080</v>
+        <v>35381</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>20002</v>
+        <v>25000</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -524,25 +551,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>41559</v>
+        <v>43013</v>
       </c>
       <c r="E5" s="1">
-        <v>36081</v>
+        <v>36354</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>20003</v>
+        <v>40000</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,25 +577,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>41559</v>
+        <v>41921</v>
       </c>
       <c r="E6" s="1">
-        <v>36082</v>
+        <v>34652</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>20004</v>
+        <v>15000</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,10 +603,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>41559</v>
@@ -588,66 +615,22 @@
         <v>36083</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>20005</v>
+        <v>20000</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45211</v>
-      </c>
-      <c r="E8" s="1">
-        <v>41197</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>20005</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45211</v>
-      </c>
-      <c r="E9" s="1">
-        <v>41197</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>20006</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
